--- a/Excel/Data files/Lecture_7_Formatting.xlsx
+++ b/Excel/Data files/Lecture_7_Formatting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\07_Videos\01_excel\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D86C75-EC93-4EE1-8938-7B6C65DBBEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="862"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data" sheetId="26" r:id="rId1"/>
@@ -24,10 +25,19 @@
     <definedName name="PeopleLists">[1]AREAS!$C$3:$D$6,[1]AREAS!$C$8:$D$11</definedName>
     <definedName name="UserChoice">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -111,12 +121,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +218,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -345,13 +368,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,13 +426,79 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -429,7 +533,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Welcome"/>
@@ -1267,449 +1371,534 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>99</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>83</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>82</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="14">
         <v>69</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="14">
         <v>92</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="14">
         <v>510</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="18">
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>85</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="14">
         <v>53</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>43</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
         <v>52</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="14">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="14">
         <v>52</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="14">
         <v>296</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="18">
         <v>0.49333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>85</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>79</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>79</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <v>74</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="14">
         <v>91</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="14">
         <v>488</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="18">
         <v>0.81333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>99</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>82</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>98</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="14">
         <v>81</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="14">
         <v>62</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="14">
         <v>522</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="18">
         <v>0.87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>45</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>60</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>59</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="14">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="14">
         <v>60</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="14">
         <v>299</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="18">
         <v>0.49833333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>63</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>76</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>81</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>61</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="14">
         <v>94</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="14">
         <v>45</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="14">
         <v>420</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="18">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>72</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>67</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>86</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <v>66</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="14">
         <v>81</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="14">
         <v>58</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="14">
         <v>430</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="18">
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>82</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>63</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>72</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="14">
         <v>80</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="14">
         <v>53</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="14">
         <v>92</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="14">
         <v>442</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="18">
         <v>0.73666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>68</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <v>93</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>71</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
         <v>92</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="14">
         <v>96</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="14">
         <v>65</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="14">
         <v>485</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="18">
         <v>0.80833333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>89</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>95</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="14">
         <v>57</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="14">
         <v>31</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="14">
         <v>75</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="14">
         <v>406</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="18">
         <v>0.67666666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>84</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>93</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>42</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="14">
         <v>52</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="14">
         <v>75</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="14">
         <v>389</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="18">
         <v>0.64833333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>94</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>72</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <v>54</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="14">
         <v>92</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="14">
         <v>32</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="14">
         <v>57</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="14">
         <v>401</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="18">
         <v>0.66833333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15">
         <v>78</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="19">
         <v>73.166666666666671</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <v>72.583333333333329</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="19">
         <v>71.666666666666671</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="19">
         <v>59.916666666666664</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="19">
         <v>68.666666666666671</v>
       </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{342E3C16-302C-4CFE-B29F-8B668550E688}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>520</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{342E3C16-302C-4CFE-B29F-8B668550E688}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1722,7 +1911,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +1969,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1998,7 @@
         <v>0.49333333333333335</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +2027,7 @@
         <v>0.81333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +2056,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +2085,7 @@
         <v>0.49833333333333335</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +2114,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1954,7 +2143,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1983,7 +2172,7 @@
         <v>0.73666666666666669</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2201,7 @@
         <v>0.80833333333333335</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2230,7 @@
         <v>0.67666666666666664</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2070,7 +2259,7 @@
         <v>0.64833333333333332</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
@@ -2099,7 +2288,7 @@
         <v>0.66833333333333333</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2129,14 +2318,6 @@
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:H17">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
-      <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I17">
-    <cfRule type="top10" dxfId="0" priority="4" percent="1" rank="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C6:C17">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -2151,6 +2332,11 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C6:H17">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>35</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2162,6 +2348,9 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I17">
+    <cfRule type="top10" dxfId="6" priority="4" percent="1" rank="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J17">
     <cfRule type="colorScale" priority="1">

--- a/Excel/Data files/Lecture_7_Formatting.xlsx
+++ b/Excel/Data files/Lecture_7_Formatting.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D86C75-EC93-4EE1-8938-7B6C65DBBEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C78ADF-9D35-4EF8-A979-CD527AF78875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data" sheetId="26" r:id="rId1"/>
     <sheet name="Worksheet" sheetId="28" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="EastAndWest">[1]INDEX!$D$91:$G$93,[1]INDEX!$D$96:$G$98</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Students</t>
   </si>
@@ -126,7 +128,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +206,51 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiLight SemiConde"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +446,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,25 +477,61 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -461,11 +554,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -476,36 +569,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1374,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,406 +1452,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>99</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>83</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>85</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>82</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>69</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>92</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>510</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="16">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>85</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>53</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>43</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>52</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>11</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>52</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>296</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <v>0.49333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>85</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>80</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>79</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>79</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>74</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>91</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>488</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>0.81333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>100</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>99</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>82</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>98</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>81</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>62</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>522</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>45</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>60</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>30</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>59</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>45</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>60</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>299</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>0.49833333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>63</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>76</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>81</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>61</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>94</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>45</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>420</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>72</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>67</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>86</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>66</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>81</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <v>58</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>430</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>82</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>63</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>72</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>80</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>53</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>92</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>442</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>0.73666666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>68</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>93</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>71</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>92</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>96</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>65</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>485</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>0.80833333333333335</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>59</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>89</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>95</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>57</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>31</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>75</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>406</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>0.67666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>84</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>43</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>93</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>42</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>52</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>75</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>389</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <v>0.64833333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>94</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>72</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>54</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>92</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>32</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <v>57</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>401</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <v>0.66833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>78</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>73.166666666666671</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>72.583333333333329</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>71.666666666666671</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>59.916666666666664</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>68.666666666666671</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
@@ -1818,33 +1881,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>520</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="9" tint="0.59999389629810485"/>
         <color theme="9" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.59999389629810485"/>
-        <color theme="9" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1893,23 +1956,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="5" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
@@ -2333,7 +2396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:H17">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2350,7 +2413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I17">
-    <cfRule type="top10" dxfId="6" priority="4" percent="1" rank="15"/>
+    <cfRule type="top10" dxfId="0" priority="4" percent="1" rank="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J17">
     <cfRule type="colorScale" priority="1">
@@ -2383,4 +2446,982 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7804EF-816B-4D92-A500-822992C4D98D}">
+  <dimension ref="H8:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="H8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="19">
+        <v>99</v>
+      </c>
+      <c r="J9" s="19">
+        <v>83</v>
+      </c>
+      <c r="K9" s="19">
+        <v>85</v>
+      </c>
+      <c r="L9" s="19">
+        <v>82</v>
+      </c>
+      <c r="M9" s="19">
+        <v>69</v>
+      </c>
+      <c r="N9" s="19">
+        <v>92</v>
+      </c>
+      <c r="O9" s="19">
+        <v>510</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="19">
+        <v>85</v>
+      </c>
+      <c r="J10" s="19">
+        <v>53</v>
+      </c>
+      <c r="K10" s="19">
+        <v>43</v>
+      </c>
+      <c r="L10" s="19">
+        <v>52</v>
+      </c>
+      <c r="M10" s="19">
+        <v>11</v>
+      </c>
+      <c r="N10" s="19">
+        <v>52</v>
+      </c>
+      <c r="O10" s="19">
+        <v>296</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0.49333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="19">
+        <v>85</v>
+      </c>
+      <c r="J11" s="19">
+        <v>80</v>
+      </c>
+      <c r="K11" s="19">
+        <v>79</v>
+      </c>
+      <c r="L11" s="19">
+        <v>79</v>
+      </c>
+      <c r="M11" s="19">
+        <v>74</v>
+      </c>
+      <c r="N11" s="19">
+        <v>91</v>
+      </c>
+      <c r="O11" s="19">
+        <v>488</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0.81333333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>100</v>
+      </c>
+      <c r="J12" s="19">
+        <v>99</v>
+      </c>
+      <c r="K12" s="19">
+        <v>82</v>
+      </c>
+      <c r="L12" s="19">
+        <v>98</v>
+      </c>
+      <c r="M12" s="19">
+        <v>81</v>
+      </c>
+      <c r="N12" s="19">
+        <v>62</v>
+      </c>
+      <c r="O12" s="19">
+        <v>522</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="19">
+        <v>45</v>
+      </c>
+      <c r="J13" s="19">
+        <v>60</v>
+      </c>
+      <c r="K13" s="19">
+        <v>30</v>
+      </c>
+      <c r="L13" s="19">
+        <v>59</v>
+      </c>
+      <c r="M13" s="19">
+        <v>45</v>
+      </c>
+      <c r="N13" s="19">
+        <v>60</v>
+      </c>
+      <c r="O13" s="19">
+        <v>299</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0.49833333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19">
+        <v>63</v>
+      </c>
+      <c r="J14" s="19">
+        <v>76</v>
+      </c>
+      <c r="K14" s="19">
+        <v>81</v>
+      </c>
+      <c r="L14" s="19">
+        <v>61</v>
+      </c>
+      <c r="M14" s="19">
+        <v>94</v>
+      </c>
+      <c r="N14" s="19">
+        <v>45</v>
+      </c>
+      <c r="O14" s="19">
+        <v>420</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="19">
+        <v>72</v>
+      </c>
+      <c r="J15" s="19">
+        <v>67</v>
+      </c>
+      <c r="K15" s="19">
+        <v>86</v>
+      </c>
+      <c r="L15" s="19">
+        <v>66</v>
+      </c>
+      <c r="M15" s="19">
+        <v>81</v>
+      </c>
+      <c r="N15" s="19">
+        <v>58</v>
+      </c>
+      <c r="O15" s="19">
+        <v>430</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19">
+        <v>82</v>
+      </c>
+      <c r="J16" s="19">
+        <v>63</v>
+      </c>
+      <c r="K16" s="19">
+        <v>72</v>
+      </c>
+      <c r="L16" s="19">
+        <v>80</v>
+      </c>
+      <c r="M16" s="19">
+        <v>53</v>
+      </c>
+      <c r="N16" s="19">
+        <v>92</v>
+      </c>
+      <c r="O16" s="19">
+        <v>442</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0.73666666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19">
+        <v>68</v>
+      </c>
+      <c r="J17" s="19">
+        <v>93</v>
+      </c>
+      <c r="K17" s="19">
+        <v>71</v>
+      </c>
+      <c r="L17" s="19">
+        <v>92</v>
+      </c>
+      <c r="M17" s="19">
+        <v>96</v>
+      </c>
+      <c r="N17" s="19">
+        <v>65</v>
+      </c>
+      <c r="O17" s="19">
+        <v>485</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0.80833333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="19">
+        <v>59</v>
+      </c>
+      <c r="J18" s="19">
+        <v>89</v>
+      </c>
+      <c r="K18" s="19">
+        <v>95</v>
+      </c>
+      <c r="L18" s="19">
+        <v>57</v>
+      </c>
+      <c r="M18" s="19">
+        <v>31</v>
+      </c>
+      <c r="N18" s="19">
+        <v>75</v>
+      </c>
+      <c r="O18" s="19">
+        <v>406</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0.67666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="19">
+        <v>84</v>
+      </c>
+      <c r="J19" s="19">
+        <v>43</v>
+      </c>
+      <c r="K19" s="19">
+        <v>93</v>
+      </c>
+      <c r="L19" s="19">
+        <v>42</v>
+      </c>
+      <c r="M19" s="19">
+        <v>52</v>
+      </c>
+      <c r="N19" s="19">
+        <v>75</v>
+      </c>
+      <c r="O19" s="19">
+        <v>389</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0.64833333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="H20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="19">
+        <v>94</v>
+      </c>
+      <c r="J20" s="19">
+        <v>72</v>
+      </c>
+      <c r="K20" s="19">
+        <v>54</v>
+      </c>
+      <c r="L20" s="19">
+        <v>92</v>
+      </c>
+      <c r="M20" s="19">
+        <v>32</v>
+      </c>
+      <c r="N20" s="19">
+        <v>57</v>
+      </c>
+      <c r="O20" s="19">
+        <v>401</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.66833333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="H21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="18">
+        <v>78</v>
+      </c>
+      <c r="J21" s="22">
+        <v>73.166666666666671</v>
+      </c>
+      <c r="K21" s="22">
+        <v>72.583333333333329</v>
+      </c>
+      <c r="L21" s="22">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="M21" s="22">
+        <v>59.916666666666664</v>
+      </c>
+      <c r="N21" s="22">
+        <v>68.666666666666671</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I9:I20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8A84447E-50C0-476F-AA7E-B1C7C95DCC4D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8A84447E-50C0-476F-AA7E-B1C7C95DCC4D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I9:I20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639C9216-FCA4-4078-97B1-347D98025F89}">
+  <dimension ref="D5:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26">
+        <v>99</v>
+      </c>
+      <c r="F6" s="26">
+        <v>83</v>
+      </c>
+      <c r="G6" s="26">
+        <v>85</v>
+      </c>
+      <c r="H6" s="26">
+        <v>82</v>
+      </c>
+      <c r="I6" s="26">
+        <v>69</v>
+      </c>
+      <c r="J6" s="26">
+        <v>92</v>
+      </c>
+      <c r="K6" s="26">
+        <v>510</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26">
+        <v>85</v>
+      </c>
+      <c r="F7" s="26">
+        <v>53</v>
+      </c>
+      <c r="G7" s="26">
+        <v>43</v>
+      </c>
+      <c r="H7" s="26">
+        <v>52</v>
+      </c>
+      <c r="I7" s="26">
+        <v>11</v>
+      </c>
+      <c r="J7" s="26">
+        <v>52</v>
+      </c>
+      <c r="K7" s="26">
+        <v>296</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0.49333333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="26">
+        <v>85</v>
+      </c>
+      <c r="F8" s="26">
+        <v>80</v>
+      </c>
+      <c r="G8" s="26">
+        <v>79</v>
+      </c>
+      <c r="H8" s="26">
+        <v>79</v>
+      </c>
+      <c r="I8" s="26">
+        <v>74</v>
+      </c>
+      <c r="J8" s="26">
+        <v>91</v>
+      </c>
+      <c r="K8" s="26">
+        <v>488</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0.81333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="26">
+        <v>100</v>
+      </c>
+      <c r="F9" s="26">
+        <v>99</v>
+      </c>
+      <c r="G9" s="26">
+        <v>82</v>
+      </c>
+      <c r="H9" s="26">
+        <v>98</v>
+      </c>
+      <c r="I9" s="26">
+        <v>81</v>
+      </c>
+      <c r="J9" s="26">
+        <v>62</v>
+      </c>
+      <c r="K9" s="26">
+        <v>522</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26">
+        <v>45</v>
+      </c>
+      <c r="F10" s="26">
+        <v>60</v>
+      </c>
+      <c r="G10" s="26">
+        <v>30</v>
+      </c>
+      <c r="H10" s="26">
+        <v>59</v>
+      </c>
+      <c r="I10" s="26">
+        <v>45</v>
+      </c>
+      <c r="J10" s="26">
+        <v>60</v>
+      </c>
+      <c r="K10" s="26">
+        <v>299</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0.49833333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26">
+        <v>63</v>
+      </c>
+      <c r="F11" s="26">
+        <v>76</v>
+      </c>
+      <c r="G11" s="26">
+        <v>81</v>
+      </c>
+      <c r="H11" s="26">
+        <v>61</v>
+      </c>
+      <c r="I11" s="26">
+        <v>94</v>
+      </c>
+      <c r="J11" s="26">
+        <v>45</v>
+      </c>
+      <c r="K11" s="26">
+        <v>420</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="26">
+        <v>72</v>
+      </c>
+      <c r="F12" s="26">
+        <v>67</v>
+      </c>
+      <c r="G12" s="26">
+        <v>86</v>
+      </c>
+      <c r="H12" s="26">
+        <v>66</v>
+      </c>
+      <c r="I12" s="26">
+        <v>81</v>
+      </c>
+      <c r="J12" s="26">
+        <v>58</v>
+      </c>
+      <c r="K12" s="26">
+        <v>430</v>
+      </c>
+      <c r="L12" s="28">
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="26">
+        <v>82</v>
+      </c>
+      <c r="F13" s="26">
+        <v>63</v>
+      </c>
+      <c r="G13" s="26">
+        <v>72</v>
+      </c>
+      <c r="H13" s="26">
+        <v>80</v>
+      </c>
+      <c r="I13" s="26">
+        <v>53</v>
+      </c>
+      <c r="J13" s="26">
+        <v>92</v>
+      </c>
+      <c r="K13" s="26">
+        <v>442</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0.73666666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="26">
+        <v>68</v>
+      </c>
+      <c r="F14" s="26">
+        <v>93</v>
+      </c>
+      <c r="G14" s="26">
+        <v>71</v>
+      </c>
+      <c r="H14" s="26">
+        <v>92</v>
+      </c>
+      <c r="I14" s="26">
+        <v>96</v>
+      </c>
+      <c r="J14" s="26">
+        <v>65</v>
+      </c>
+      <c r="K14" s="26">
+        <v>485</v>
+      </c>
+      <c r="L14" s="28">
+        <v>0.80833333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="26">
+        <v>59</v>
+      </c>
+      <c r="F15" s="26">
+        <v>89</v>
+      </c>
+      <c r="G15" s="26">
+        <v>95</v>
+      </c>
+      <c r="H15" s="26">
+        <v>57</v>
+      </c>
+      <c r="I15" s="26">
+        <v>31</v>
+      </c>
+      <c r="J15" s="26">
+        <v>75</v>
+      </c>
+      <c r="K15" s="26">
+        <v>406</v>
+      </c>
+      <c r="L15" s="28">
+        <v>0.67666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="26">
+        <v>84</v>
+      </c>
+      <c r="F16" s="26">
+        <v>43</v>
+      </c>
+      <c r="G16" s="26">
+        <v>93</v>
+      </c>
+      <c r="H16" s="26">
+        <v>42</v>
+      </c>
+      <c r="I16" s="26">
+        <v>52</v>
+      </c>
+      <c r="J16" s="26">
+        <v>75</v>
+      </c>
+      <c r="K16" s="26">
+        <v>389</v>
+      </c>
+      <c r="L16" s="28">
+        <v>0.64833333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="16" x14ac:dyDescent="0.35">
+      <c r="D17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="26">
+        <v>94</v>
+      </c>
+      <c r="F17" s="26">
+        <v>72</v>
+      </c>
+      <c r="G17" s="26">
+        <v>54</v>
+      </c>
+      <c r="H17" s="26">
+        <v>92</v>
+      </c>
+      <c r="I17" s="26">
+        <v>32</v>
+      </c>
+      <c r="J17" s="26">
+        <v>57</v>
+      </c>
+      <c r="K17" s="26">
+        <v>401</v>
+      </c>
+      <c r="L17" s="28">
+        <v>0.66833333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="D18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="25">
+        <v>78</v>
+      </c>
+      <c r="F18" s="29">
+        <v>73.166666666666671</v>
+      </c>
+      <c r="G18" s="29">
+        <v>72.583333333333329</v>
+      </c>
+      <c r="H18" s="29">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="I18" s="29">
+        <v>59.916666666666664</v>
+      </c>
+      <c r="J18" s="29">
+        <v>68.666666666666671</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D6:D17">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E9DD1448-2BF2-4FAC-8DEE-601F4B2EEA3E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E9DD1448-2BF2-4FAC-8DEE-601F4B2EEA3E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>